--- a/صيدليات دكتور مصطفي طلعت_2025-12-23_22-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-23_22-58.xlsx
@@ -386,315 +386,321 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIGEST EZE 20 CAPS</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GINKGO BILOBA 30 CAPS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>HI-POTENCY FORMULA 30 TABS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>INIZIO SHAMPOO</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JOINTGUARD ULTRA 30 CAPS</t>
+  </si>
+  <si>
+    <t>499.00</t>
+  </si>
+  <si>
+    <t>164.6700</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>lactoferrin100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>MAL-WASSEH SPRAY</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>MAREVAN 5MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>90.8700</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>NAPIZOLE 40 MG VIAL</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>90.4500</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIGEST EZE 20 CAPS</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GINKGO BILOBA 30 CAPS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>184.0000</t>
-  </si>
-  <si>
-    <t>HI-POTENCY FORMULA 30 TABS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>INIZIO SHAMPOO</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JOINTGUARD ULTRA 30 CAPS</t>
-  </si>
-  <si>
-    <t>499.00</t>
-  </si>
-  <si>
-    <t>164.6700</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>lactoferrin100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>285.00</t>
-  </si>
-  <si>
-    <t>285.0000</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LOPRECOUGH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>MAL-WASSEH SPRAY</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>MAREVAN 5MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>90.8700</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>NAPIZOLE 40 MG VIAL</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>90.4500</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -941,7 +947,10 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>84.6600</t>
+    <t>101.4900</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1071,6 +1080,12 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>14.0000</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -3107,7 +3122,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3124,7 +3139,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3550,7 +3565,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3562,7 +3577,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3579,11 +3594,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3595,7 +3610,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3616,7 +3631,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3628,7 +3643,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3645,11 +3660,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>15</v>
@@ -3661,14 +3676,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>43</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3880,7 +3895,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3892,7 +3907,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3925,7 +3940,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3942,11 +3957,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3958,7 +3973,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3975,11 +3990,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3991,7 +4006,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4008,11 +4023,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -4024,7 +4039,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4041,11 +4056,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -4057,7 +4072,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4078,7 +4093,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>11</v>
@@ -4090,7 +4105,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4107,11 +4122,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>11</v>
@@ -4123,7 +4138,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4140,11 +4155,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -4156,7 +4171,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4173,11 +4188,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -4189,7 +4204,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4206,11 +4221,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4222,7 +4237,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4243,7 +4258,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>98</v>
@@ -4255,14 +4270,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4276,7 +4291,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>11</v>
@@ -4288,14 +4303,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4305,11 +4320,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4321,7 +4336,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4338,11 +4353,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4354,14 +4369,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4375,7 +4390,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>11</v>
@@ -4387,14 +4402,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4404,11 +4419,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4420,7 +4435,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4437,11 +4452,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4453,7 +4468,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4470,11 +4485,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>17</v>
@@ -4486,14 +4501,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4519,7 +4534,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4536,11 +4551,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>15</v>
@@ -4552,7 +4567,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4569,11 +4584,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4585,7 +4600,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4606,7 +4621,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>11</v>
@@ -4618,7 +4633,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4635,11 +4650,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4651,14 +4666,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4668,11 +4683,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4684,14 +4699,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4701,11 +4716,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>98</v>
@@ -4717,7 +4732,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4734,11 +4749,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4750,7 +4765,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4767,11 +4782,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>98</v>
@@ -4783,7 +4798,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4800,11 +4815,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4816,7 +4831,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4833,11 +4848,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4849,7 +4864,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4866,11 +4881,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>15</v>
@@ -4882,7 +4897,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4899,7 +4914,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4915,7 +4930,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4936,7 +4951,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4948,7 +4963,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4965,11 +4980,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4981,7 +4996,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -5002,7 +5017,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>11</v>
@@ -5014,7 +5029,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5031,11 +5046,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>11</v>
@@ -5047,7 +5062,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5064,11 +5079,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -5080,7 +5095,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5097,11 +5112,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>15</v>
@@ -5113,14 +5128,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5146,7 +5161,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5163,11 +5178,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>98</v>
@@ -5179,7 +5194,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5196,11 +5211,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5212,7 +5227,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5245,14 +5260,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5262,14 +5277,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5278,7 +5293,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5299,7 +5314,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>98</v>
@@ -5311,14 +5326,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5328,14 +5343,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>115</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5344,14 +5359,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5361,14 +5376,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5377,7 +5392,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5410,14 +5425,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5431,7 +5446,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>11</v>
@@ -5443,7 +5458,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5464,7 +5479,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5476,7 +5491,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5493,11 +5508,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>17</v>
@@ -5509,7 +5524,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5526,11 +5541,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>17</v>
@@ -5542,14 +5557,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5559,11 +5574,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>17</v>
@@ -5575,14 +5590,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5592,11 +5607,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>11</v>
@@ -5608,14 +5623,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5625,11 +5640,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>11</v>
@@ -5641,14 +5656,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5658,11 +5673,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>17</v>
@@ -5674,7 +5689,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5691,11 +5706,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>17</v>
@@ -5707,14 +5722,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5724,11 +5739,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>11</v>
@@ -5740,7 +5755,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5757,11 +5772,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>83</v>
@@ -5773,7 +5788,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5790,11 +5805,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>17</v>
@@ -5806,14 +5821,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5823,14 +5838,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5839,14 +5854,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5872,14 +5887,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5889,11 +5904,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>17</v>
@@ -5905,7 +5920,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5922,11 +5937,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>11</v>
@@ -5938,7 +5953,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5955,14 +5970,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5971,14 +5986,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5988,14 +6003,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>296</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6004,14 +6019,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6021,11 +6036,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>17</v>
@@ -6037,14 +6052,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6054,11 +6069,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>17</v>
@@ -6070,14 +6085,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6087,11 +6102,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>11</v>
@@ -6103,7 +6118,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6120,11 +6135,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>17</v>
@@ -6136,7 +6151,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6157,7 +6172,7 @@
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>17</v>
@@ -6169,14 +6184,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6202,14 +6217,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6219,11 +6234,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>17</v>
@@ -6235,7 +6250,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6252,11 +6267,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>11</v>
@@ -6268,7 +6283,7 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -6285,11 +6300,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>17</v>
@@ -6301,7 +6316,7 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -6318,11 +6333,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>17</v>
@@ -6334,14 +6349,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6351,11 +6366,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>17</v>
@@ -6367,14 +6382,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6388,7 +6403,7 @@
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>11</v>
@@ -6396,7 +6411,7 @@
     </row>
     <row r="147" ht="26.25" customHeight="1">
       <c r="N147" s="13">
-        <v>9781.8850000000002</v>
+        <v>9829.5550000000003</v>
       </c>
       <c r="O147" s="13"/>
       <c r="P147" s="13"/>
@@ -6404,7 +6419,7 @@
     </row>
     <row r="148" ht="16.5" customHeight="1">
       <c t="s" r="A148" s="14">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -6412,13 +6427,13 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c t="s" r="G148" s="15">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
       <c r="J148" s="16"/>
       <c t="s" r="K148" s="17">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
